--- a/src/main/resources/file/test.xlsx
+++ b/src/main/resources/file/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuiy\IdeaProjects\shimo_api\src\main\resources\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8213AEA-D294-4B02-9825-96B7189B595A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FB80B6-4472-4915-B933-0D0B258F04A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2376" yWindow="-15300" windowWidth="23040" windowHeight="13644" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1644" yWindow="-16116" windowWidth="26688" windowHeight="13644" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>autoTest_new@shimo.im</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>delFileFromFolder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fileCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,6 +91,94 @@
   </si>
   <si>
     <t>HqKHckx9D39R9dD9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authorityForMoveFile_1_1@shimo.im</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ7nzMRvS68m4fd6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoTest_Folder@shimo.im</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Td8869RRcKDRTqVR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testEnterprise04@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yXkg8Q6X3KQkRkT6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adminID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>editor, editor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileGuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setCollaborator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5002087, 5002075</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddCollaborator_01@shimo.im</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bMbaP1R2qq8fSULe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>editor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hdv9GJGVJ3DgjgkP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddCollaborator_03@shimo.im</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13413, 13414</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gg8ZoJPoKWQFQir6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0HHGoFcBbBwKKSu0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>editor, commentator</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -140,7 +224,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -148,6 +232,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -464,24 +551,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A4" sqref="A4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.26953125" customWidth="1"/>
+    <col min="1" max="1" width="33.36328125" customWidth="1"/>
     <col min="2" max="2" width="10.81640625" customWidth="1"/>
-    <col min="3" max="3" width="17.36328125" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" customWidth="1"/>
     <col min="4" max="4" width="10.81640625" customWidth="1"/>
-    <col min="5" max="6" width="13.90625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" customWidth="1"/>
-    <col min="8" max="19" width="10.81640625" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" customWidth="1"/>
+    <col min="6" max="6" width="17.36328125" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" customWidth="1"/>
+    <col min="8" max="9" width="13.90625" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="19.90625" customWidth="1"/>
+    <col min="12" max="21" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -489,173 +580,350 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1">
+        <v>123123</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2">
+        <v>13414</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2">
+        <v>13413</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1">
+        <v>123123</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3">
+        <v>13414</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3">
+        <v>13413</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1">
+        <v>123123</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4">
+        <v>13416</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1">
+        <v>123123</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5">
+        <v>13416</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1">
+        <v>123123</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6">
+        <v>5002076</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1">
+        <v>123123</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>123123</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>123123</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>123123</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>123123</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1">
+        <v>123123</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>123123</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="1">
-        <v>123123</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="B14" s="1">
+        <v>123123</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>123123</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1">
+        <v>123123</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="1">
         <v>0</v>
       </c>
-      <c r="B4" s="1">
-        <v>123123</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>123123</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="H15" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
-        <v>123123</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1">
-        <v>123123</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1">
-        <v>123123</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1" xr:uid="{BAD52362-6BB7-4567-A001-754201747D4C}"/>
-    <hyperlink ref="A6" r:id="rId2" xr:uid="{F4525CFC-81F7-4370-A2A9-53689A104D21}"/>
-    <hyperlink ref="A8" r:id="rId3" xr:uid="{F9E02A9C-FF35-46E4-8A7F-A13B3D3933B5}"/>
-    <hyperlink ref="A7" r:id="rId4" xr:uid="{D27C4AAB-A173-4D03-93C8-D3996903EA0A}"/>
+    <hyperlink ref="A10" r:id="rId1" xr:uid="{BAD52362-6BB7-4567-A001-754201747D4C}"/>
+    <hyperlink ref="A11" r:id="rId2" xr:uid="{F4525CFC-81F7-4370-A2A9-53689A104D21}"/>
+    <hyperlink ref="A13" r:id="rId3" xr:uid="{F9E02A9C-FF35-46E4-8A7F-A13B3D3933B5}"/>
+    <hyperlink ref="A12" r:id="rId4" xr:uid="{D27C4AAB-A173-4D03-93C8-D3996903EA0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>

--- a/src/main/resources/file/test.xlsx
+++ b/src/main/resources/file/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuiy\IdeaProjects\shimo_api\src\main\resources\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FB80B6-4472-4915-B933-0D0B258F04A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40613DA1-F0A1-4EBA-BBA9-0A1399C53106}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1644" yWindow="-16116" windowWidth="26688" windowHeight="13644" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1620" yWindow="-15564" windowWidth="26688" windowHeight="13644" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>autoTest_new@shimo.im</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,6 +179,14 @@
   </si>
   <si>
     <t>editor, commentator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gengxin12@shimo.im</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3qY3Rrr3dcqRQKJC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F5"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -612,7 +620,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1">
         <v>123123</v>
@@ -620,17 +628,14 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
-        <v>32</v>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="J2">
-        <v>13414</v>
+        <v>12762</v>
       </c>
       <c r="K2" t="s">
         <v>33</v>
-      </c>
-      <c r="L2">
-        <v>13413</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -644,7 +649,7 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J3">
         <v>13414</v>
@@ -658,7 +663,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1">
         <v>123123</v>
@@ -667,16 +672,16 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="J4">
+        <v>13414</v>
       </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="L4">
-        <v>13416</v>
+        <v>13413</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -690,13 +695,13 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s">
         <v>36</v>
       </c>
       <c r="K5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="L5">
         <v>13416</v>
@@ -704,7 +709,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1">
         <v>123123</v>
@@ -712,64 +717,65 @@
       <c r="E6" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>30</v>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
       </c>
       <c r="K6" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="L6">
-        <v>5002076</v>
+        <v>13416</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1">
+        <v>123123</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7">
+        <v>5002076</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1">
-        <v>123123</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="B8" s="1">
+        <v>123123</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>123123</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>123123</v>
@@ -791,7 +797,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1">
         <v>123123</v>
@@ -806,80 +812,78 @@
         <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1">
         <v>123123</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1">
         <v>123123</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1">
         <v>123123</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" t="s">
-        <v>11</v>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
+      <c r="A14" t="s">
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>123123</v>
@@ -887,43 +891,67 @@
       <c r="C14" t="s">
         <v>5</v>
       </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1">
+        <v>123123</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="1">
-        <v>123123</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="B16" s="1">
+        <v>123123</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G16" s="1">
         <v>0</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H16" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1" xr:uid="{BAD52362-6BB7-4567-A001-754201747D4C}"/>
-    <hyperlink ref="A11" r:id="rId2" xr:uid="{F4525CFC-81F7-4370-A2A9-53689A104D21}"/>
-    <hyperlink ref="A13" r:id="rId3" xr:uid="{F9E02A9C-FF35-46E4-8A7F-A13B3D3933B5}"/>
-    <hyperlink ref="A12" r:id="rId4" xr:uid="{D27C4AAB-A173-4D03-93C8-D3996903EA0A}"/>
+    <hyperlink ref="A11" r:id="rId1" xr:uid="{BAD52362-6BB7-4567-A001-754201747D4C}"/>
+    <hyperlink ref="A12" r:id="rId2" xr:uid="{F4525CFC-81F7-4370-A2A9-53689A104D21}"/>
+    <hyperlink ref="A14" r:id="rId3" xr:uid="{F9E02A9C-FF35-46E4-8A7F-A13B3D3933B5}"/>
+    <hyperlink ref="A13" r:id="rId4" xr:uid="{D27C4AAB-A173-4D03-93C8-D3996903EA0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>

--- a/src/main/resources/file/test.xlsx
+++ b/src/main/resources/file/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuiy\IdeaProjects\shimo_api\src\main\resources\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40613DA1-F0A1-4EBA-BBA9-0A1399C53106}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB31A7DD-BDD3-473C-AA0D-65B6B59492CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="-15564" windowWidth="26688" windowHeight="13644" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t>autoTest_new@shimo.im</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,6 +187,26 @@
   </si>
   <si>
     <t>3qY3Rrr3dcqRQKJC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoTest01@shimo.im</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wKXKPQkGtXtVg6K6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSrDQOpRLqQ0PeEo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11441, 11583</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile_test@shimo.im</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,28 +579,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.36328125" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" customWidth="1"/>
-    <col min="6" max="6" width="17.36328125" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" customWidth="1"/>
-    <col min="8" max="9" width="13.90625" customWidth="1"/>
+    <col min="1" max="1" width="33.3828125" customWidth="1"/>
+    <col min="2" max="2" width="10.84375" customWidth="1"/>
+    <col min="3" max="3" width="13.69140625" customWidth="1"/>
+    <col min="4" max="4" width="10.84375" customWidth="1"/>
+    <col min="5" max="5" width="13.53515625" customWidth="1"/>
+    <col min="6" max="6" width="17.3828125" customWidth="1"/>
+    <col min="7" max="7" width="10.84375" customWidth="1"/>
+    <col min="8" max="9" width="13.921875" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="19.90625" customWidth="1"/>
-    <col min="12" max="21" width="10.81640625" customWidth="1"/>
+    <col min="11" max="11" width="19.921875" customWidth="1"/>
+    <col min="12" max="21" width="10.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -618,7 +638,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
@@ -638,7 +658,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -661,7 +681,7 @@
         <v>13413</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -684,7 +704,7 @@
         <v>13413</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>35</v>
       </c>
@@ -707,7 +727,7 @@
         <v>13416</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -730,7 +750,7 @@
         <v>13416</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -753,7 +773,7 @@
         <v>5002076</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -773,7 +793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -795,7 +815,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -817,7 +837,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -839,7 +859,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -857,7 +877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -881,7 +901,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -905,7 +925,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -925,7 +945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -942,6 +962,69 @@
         <v>0</v>
       </c>
       <c r="H16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1">
+        <v>123123</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17">
+        <v>11767</v>
+      </c>
+      <c r="K17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17">
+        <v>11442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1">
+        <v>123123</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18">
+        <v>11442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="1">
+        <v>123123</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
         <v>0</v>
       </c>
     </row>

--- a/src/main/resources/file/test.xlsx
+++ b/src/main/resources/file/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuiy\IdeaProjects\shimo_api\src\main\resources\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB31A7DD-BDD3-473C-AA0D-65B6B59492CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31728DC-1D85-456D-9122-8E8AD9DB48F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -582,7 +582,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1025,7 +1025,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/file/test.xlsx
+++ b/src/main/resources/file/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuiy\IdeaProjects\shimo_api\src\main\resources\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31728DC-1D85-456D-9122-8E8AD9DB48F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5AB60F-DBB2-48B3-AD1E-26ABCC9A2015}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
   <si>
     <t>autoTest_new@shimo.im</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PXkdTAcyg5kfZwcN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>testDocHeader@shimo.im</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HqKHckx9D39R9dD9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>authorityForMoveFile_1_1@shimo.im</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,6 +199,42 @@
   </si>
   <si>
     <t>mobile_test@shimo.im</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VR9DjxThqGTYVPwy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DKhjWcytDKQjwphV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gengxin14@shimo.im</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoTest07@shimo.im</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gengxin3@shimo.im</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zuijin66@shimo.im</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Completely@shimo.im</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zuijin9@shimo.im</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zuijin55@shimo.im</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -579,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -614,10 +642,10 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G1" t="s">
         <v>9</v>
@@ -629,18 +657,18 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
       <c r="L1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1">
         <v>123123</v>
@@ -649,18 +677,18 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J2">
         <v>12762</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1">
         <v>123123</v>
@@ -669,13 +697,13 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J3">
         <v>13414</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L3">
         <v>13413</v>
@@ -683,7 +711,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1">
         <v>123123</v>
@@ -692,13 +720,13 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J4">
         <v>13414</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L4">
         <v>13413</v>
@@ -706,22 +734,22 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1">
+        <v>123123</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="1">
-        <v>123123</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>37</v>
-      </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L5">
         <v>13416</v>
@@ -729,7 +757,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1">
         <v>123123</v>
@@ -738,13 +766,13 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L6">
         <v>13416</v>
@@ -752,7 +780,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1">
         <v>123123</v>
@@ -761,13 +789,13 @@
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L7">
         <v>5002076</v>
@@ -775,7 +803,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1">
         <v>123123</v>
@@ -783,8 +811,8 @@
       <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="F8" t="s">
-        <v>17</v>
+      <c r="F8" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -879,7 +907,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1">
         <v>123123</v>
@@ -890,7 +918,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -927,7 +955,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1">
         <v>123123</v>
@@ -936,7 +964,7 @@
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -947,7 +975,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1">
         <v>123123</v>
@@ -956,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -967,7 +995,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" s="1">
         <v>123123</v>
@@ -976,13 +1004,13 @@
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J17">
         <v>11767</v>
       </c>
       <c r="K17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L17">
         <v>11442</v>
@@ -990,22 +1018,22 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="1">
+        <v>123123</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="1">
-        <v>123123</v>
-      </c>
-      <c r="E18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="J18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L18">
         <v>11442</v>
@@ -1013,7 +1041,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B19" s="1">
         <v>123123</v>
@@ -1026,6 +1054,125 @@
       </c>
       <c r="H19" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="1">
+        <v>123123</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="1">
+        <v>123123</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="1">
+        <v>123123</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="1">
+        <v>123123</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="1">
+        <v>123123</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="1">
+        <v>123123</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="1">
+        <v>123123</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/file/test.xlsx
+++ b/src/main/resources/file/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuiy\IdeaProjects\shimo_api\src\main\resources\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5AB60F-DBB2-48B3-AD1E-26ABCC9A2015}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92D3481-E5E1-48E4-9F8D-74B3DD6A2C19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
   <si>
     <t>autoTest_new@shimo.im</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,6 +235,10 @@
   </si>
   <si>
     <t>zuijin55@shimo.im</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq7@qq.qqq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -607,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1175,6 +1179,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="1">
+        <v>123123</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/src/main/resources/file/test.xlsx
+++ b/src/main/resources/file/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuiy\IdeaProjects\shimo_api\src\main\resources\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92D3481-E5E1-48E4-9F8D-74B3DD6A2C19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74DF7E0-5F3B-4601-BCA1-733676CBF286}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="-18960" windowWidth="19200" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -613,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/src/main/resources/file/test.xlsx
+++ b/src/main/resources/file/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuiy\IdeaProjects\shimo_api\src\main\resources\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74DF7E0-5F3B-4601-BCA1-733676CBF286}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEC1DA7-72D0-4E0B-B69F-CFCCB0B4A345}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="-18960" windowWidth="19200" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/src/main/resources/file/test.xlsx
+++ b/src/main/resources/file/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuiy\IdeaProjects\shimo_api\src\main\resources\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEC1DA7-72D0-4E0B-B69F-CFCCB0B4A345}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F3FA79-7242-4497-B6B6-EFD22FA2735D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="-18960" windowWidth="19200" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6510" yWindow="-18465" windowWidth="19200" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
   <si>
     <t>autoTest_new@shimo.im</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,6 +239,14 @@
   </si>
   <si>
     <t>qq7@qq.qqq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3J9G2dl1loKxTase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spacebuild@shimo.im</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -611,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1193,6 +1201,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="1">
+        <v>123123</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/src/main/resources/file/test.xlsx
+++ b/src/main/resources/file/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuiy\IdeaProjects\shimo_api\src\main\resources\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F3FA79-7242-4497-B6B6-EFD22FA2735D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F429D69-347B-4A7A-9682-36E7EE3B6BCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6510" yWindow="-18465" windowWidth="19200" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
   <si>
     <t>autoTest_new@shimo.im</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -619,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -995,37 +995,32 @@
       <c r="C16" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="F16" s="1"/>
       <c r="G16" s="1">
         <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1">
         <v>123123</v>
       </c>
-      <c r="E17" t="s">
+      <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J17">
-        <v>11767</v>
-      </c>
-      <c r="K17" t="s">
-        <v>31</v>
-      </c>
-      <c r="L17">
-        <v>11442</v>
+        <v>19</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -1039,13 +1034,13 @@
         <v>5</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J18" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="J18">
+        <v>11767</v>
       </c>
       <c r="K18" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L18">
         <v>11442</v>
@@ -1053,24 +1048,30 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B19" s="1">
         <v>123123</v>
       </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1</v>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19">
+        <v>11442</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1">
         <v>123123</v>
@@ -1082,12 +1083,12 @@
         <v>1</v>
       </c>
       <c r="H20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="1">
         <v>123123</v>
@@ -1104,7 +1105,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="1">
         <v>123123</v>
@@ -1121,7 +1122,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1">
         <v>123123</v>
@@ -1138,7 +1139,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="1">
         <v>123123</v>
@@ -1155,7 +1156,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" s="1">
         <v>123123</v>
@@ -1172,7 +1173,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" s="1">
         <v>123123</v>
@@ -1189,35 +1190,52 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="1">
         <v>123123</v>
       </c>
-      <c r="D27" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="1">
-        <v>1</v>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="1">
+        <v>123123</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="1">
-        <v>123123</v>
-      </c>
-      <c r="C28" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="B29" s="1">
+        <v>123123</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
       </c>
-      <c r="G28" s="1">
-        <v>1</v>
-      </c>
-      <c r="H28" s="1">
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
         <v>0</v>
       </c>
     </row>

--- a/src/main/resources/file/test.xlsx
+++ b/src/main/resources/file/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuiy\IdeaProjects\shimo_api\src\main\resources\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F429D69-347B-4A7A-9682-36E7EE3B6BCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F162E057-1EA2-443E-9138-C5763A1C446A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6510" yWindow="-18465" windowWidth="19200" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="59">
   <si>
     <t>autoTest_new@shimo.im</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,6 +247,14 @@
   </si>
   <si>
     <t>spacebuild@shimo.im</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collection@shimo.im</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cKgV9XhYWQq96KcQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1239,6 +1247,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="1">
+        <v>123123</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/src/main/resources/file/test.xlsx
+++ b/src/main/resources/file/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuiy\IdeaProjects\shimo_api\src\main\resources\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F162E057-1EA2-443E-9138-C5763A1C446A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40688EC8-3B6A-4792-AB59-5B215E8ADE80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6510" yWindow="-18465" windowWidth="19200" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
   <si>
     <t>autoTest_new@shimo.im</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,6 +255,22 @@
   </si>
   <si>
     <t>cKgV9XhYWQq96KcQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gengxin11@shimo.im</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New_collection@shimo.im</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desktopFile_moveToSpace@shimo.im</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qHvHtxc9Yxc6JGHk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -627,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1267,6 +1283,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="1">
+        <v>123123</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="1">
+        <v>123123</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="1">
+        <v>123123</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/src/main/resources/file/test.xlsx
+++ b/src/main/resources/file/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuiy\IdeaProjects\shimo_api\src\main\resources\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40688EC8-3B6A-4792-AB59-5B215E8ADE80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E768B7E-65A3-425B-AF23-48F3005FCFB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6510" yWindow="-18465" windowWidth="19200" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
   <si>
     <t>autoTest_new@shimo.im</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,6 +271,18 @@
   </si>
   <si>
     <t>qHvHtxc9Yxc6JGHk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YcEzcriU0xI36Hpd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13491, 13490</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove8@shimo.im</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -643,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -704,27 +716,24 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1">
         <v>123123</v>
       </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2">
-        <v>12762</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1">
         <v>123123</v>
@@ -732,17 +741,14 @@
       <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
-        <v>30</v>
+      <c r="F3" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="J3">
-        <v>13414</v>
+        <v>12762</v>
       </c>
       <c r="K3" t="s">
         <v>31</v>
-      </c>
-      <c r="L3">
-        <v>13413</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -756,7 +762,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J4">
         <v>13414</v>
@@ -770,7 +776,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1">
         <v>123123</v>
@@ -779,16 +785,16 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="J5">
+        <v>13414</v>
       </c>
       <c r="K5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L5">
-        <v>13416</v>
+        <v>13413</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -802,13 +808,13 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J6" t="s">
         <v>34</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="L6">
         <v>13416</v>
@@ -816,7 +822,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1">
         <v>123123</v>
@@ -824,64 +830,65 @@
       <c r="E7" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>28</v>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
       </c>
       <c r="K7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="L7">
-        <v>5002076</v>
+        <v>13416</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1">
+        <v>123123</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8">
+        <v>5002076</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1">
-        <v>123123</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="B9" s="1">
+        <v>123123</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1">
-        <v>123123</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
       <c r="G9" s="1">
         <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>123123</v>
@@ -903,7 +910,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B11" s="1">
         <v>123123</v>
@@ -918,80 +925,78 @@
         <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1">
         <v>123123</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1">
-        <v>1</v>
-      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1">
         <v>123123</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
         <v>123123</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" t="s">
-        <v>11</v>
+      <c r="F14" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
       </c>
       <c r="H14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>16</v>
+      <c r="A15" t="s">
+        <v>12</v>
       </c>
       <c r="B15" s="1">
         <v>123123</v>
@@ -999,19 +1004,23 @@
       <c r="C15" t="s">
         <v>5</v>
       </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1">
         <v>123123</v>
@@ -1019,12 +1028,14 @@
       <c r="C16" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -1037,37 +1048,32 @@
       <c r="C17" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="F17" s="1"/>
       <c r="G17" s="1">
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1">
         <v>123123</v>
       </c>
-      <c r="E18" t="s">
+      <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J18">
-        <v>11767</v>
-      </c>
-      <c r="K18" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18">
-        <v>11442</v>
+        <v>19</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -1081,13 +1087,13 @@
         <v>5</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J19" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="J19">
+        <v>11767</v>
       </c>
       <c r="K19" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L19">
         <v>11442</v>
@@ -1095,24 +1101,30 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B20" s="1">
         <v>123123</v>
       </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20">
+        <v>11442</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1">
         <v>123123</v>
@@ -1124,12 +1136,12 @@
         <v>1</v>
       </c>
       <c r="H21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1">
         <v>123123</v>
@@ -1146,7 +1158,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="1">
         <v>123123</v>
@@ -1163,7 +1175,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="1">
         <v>123123</v>
@@ -1180,7 +1192,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="1">
         <v>123123</v>
@@ -1197,7 +1209,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="1">
         <v>123123</v>
@@ -1214,7 +1226,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="1">
         <v>123123</v>
@@ -1231,41 +1243,38 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" s="1">
         <v>123123</v>
       </c>
-      <c r="D28" t="s">
-        <v>5</v>
-      </c>
-      <c r="I28" s="1">
-        <v>1</v>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B29" s="1">
         <v>123123</v>
       </c>
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0</v>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="1">
         <v>123123</v>
@@ -1274,7 +1283,7 @@
         <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G30" s="1">
         <v>1</v>
@@ -1285,13 +1294,16 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B31" s="1">
         <v>123123</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
+      </c>
+      <c r="F31" t="s">
+        <v>58</v>
       </c>
       <c r="G31" s="1">
         <v>1</v>
@@ -1317,7 +1329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>61</v>
       </c>
@@ -1335,15 +1347,38 @@
       </c>
       <c r="H33" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="1">
+        <v>123123</v>
+      </c>
+      <c r="E34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" t="s">
+        <v>63</v>
+      </c>
+      <c r="J34" t="s">
+        <v>64</v>
+      </c>
+      <c r="K34" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34">
+        <v>13489</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A11" r:id="rId1" xr:uid="{BAD52362-6BB7-4567-A001-754201747D4C}"/>
-    <hyperlink ref="A12" r:id="rId2" xr:uid="{F4525CFC-81F7-4370-A2A9-53689A104D21}"/>
-    <hyperlink ref="A14" r:id="rId3" xr:uid="{F9E02A9C-FF35-46E4-8A7F-A13B3D3933B5}"/>
-    <hyperlink ref="A13" r:id="rId4" xr:uid="{D27C4AAB-A173-4D03-93C8-D3996903EA0A}"/>
+    <hyperlink ref="A12" r:id="rId1" xr:uid="{BAD52362-6BB7-4567-A001-754201747D4C}"/>
+    <hyperlink ref="A13" r:id="rId2" xr:uid="{F4525CFC-81F7-4370-A2A9-53689A104D21}"/>
+    <hyperlink ref="A15" r:id="rId3" xr:uid="{F9E02A9C-FF35-46E4-8A7F-A13B3D3933B5}"/>
+    <hyperlink ref="A14" r:id="rId4" xr:uid="{D27C4AAB-A173-4D03-93C8-D3996903EA0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>

--- a/src/main/resources/file/test.xlsx
+++ b/src/main/resources/file/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuiy\IdeaProjects\shimo_api\src\main\resources\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E768B7E-65A3-425B-AF23-48F3005FCFB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD7A690-C896-4FC2-811F-D055B5C21C12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="-18465" windowWidth="19200" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4340" yWindow="2740" windowWidth="19200" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -716,13 +716,16 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1">
         <v>123123</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -733,50 +736,41 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1">
         <v>123123</v>
       </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3">
-        <v>12762</v>
-      </c>
-      <c r="K3" t="s">
-        <v>31</v>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1">
         <v>123123</v>
       </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4">
-        <v>13414</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4">
-        <v>13413</v>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1">
         <v>123123</v>
@@ -784,22 +778,19 @@
       <c r="E5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
-        <v>32</v>
+      <c r="F5" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="J5">
-        <v>13414</v>
+        <v>12762</v>
       </c>
       <c r="K5" t="s">
         <v>31</v>
       </c>
-      <c r="L5">
-        <v>13413</v>
-      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1">
         <v>123123</v>
@@ -808,21 +799,21 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="J6">
+        <v>13414</v>
       </c>
       <c r="K6" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L6">
-        <v>13416</v>
+        <v>13413</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1">
         <v>123123</v>
@@ -831,21 +822,21 @@
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="J7">
+        <v>13414</v>
       </c>
       <c r="K7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L7">
-        <v>13416</v>
+        <v>13413</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1">
         <v>123123</v>
@@ -853,86 +844,88 @@
       <c r="E8" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>28</v>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
       </c>
       <c r="K8" t="s">
         <v>25</v>
       </c>
       <c r="L8">
-        <v>5002076</v>
+        <v>13416</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1">
+        <v>123123</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9">
+        <v>13416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1">
+        <v>123123</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10">
+        <v>5002076</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1">
-        <v>123123</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="B11" s="1">
+        <v>123123</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1">
-        <v>123123</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1">
-        <v>123123</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
       <c r="G11" s="1">
         <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>123123</v>
@@ -947,44 +940,46 @@
         <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B13" s="1">
         <v>123123</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1">
         <v>123123</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="F14" s="1"/>
       <c r="G14" s="1">
         <v>1</v>
       </c>
@@ -996,69 +991,73 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1">
+        <v>123123</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>123123</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="1">
-        <v>123123</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" t="s">
+      <c r="B17" s="1">
+        <v>123123</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1">
-        <v>123123</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="1">
-        <v>123123</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="1"/>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1">
         <v>1</v>
       </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>123123</v>
@@ -1066,11 +1065,11 @@
       <c r="C18" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>19</v>
+      <c r="F18" t="s">
+        <v>17</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -1078,87 +1077,91 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>123123</v>
       </c>
-      <c r="E19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J19">
-        <v>11767</v>
-      </c>
-      <c r="K19" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19">
-        <v>11442</v>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>123123</v>
       </c>
-      <c r="E20" t="s">
+      <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J20" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20">
-        <v>11442</v>
+        <v>19</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1">
         <v>123123</v>
       </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1">
-        <v>1</v>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21">
+        <v>11767</v>
+      </c>
+      <c r="K21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21">
+        <v>11442</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B22" s="1">
         <v>123123</v>
       </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0</v>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22">
+        <v>11442</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B23" s="1">
         <v>123123</v>
@@ -1170,12 +1173,12 @@
         <v>1</v>
       </c>
       <c r="H23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B24" s="1">
         <v>123123</v>
@@ -1192,7 +1195,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B25" s="1">
         <v>123123</v>
@@ -1209,7 +1212,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B26" s="1">
         <v>123123</v>
@@ -1226,7 +1229,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" s="1">
         <v>123123</v>
@@ -1243,7 +1246,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B28" s="1">
         <v>123123</v>
@@ -1260,30 +1263,30 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B29" s="1">
         <v>123123</v>
       </c>
-      <c r="D29" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="1">
-        <v>1</v>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B30" s="1">
         <v>123123</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
-      </c>
-      <c r="F30" t="s">
-        <v>55</v>
       </c>
       <c r="G30" s="1">
         <v>1</v>
@@ -1294,33 +1297,30 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B31" s="1">
         <v>123123</v>
       </c>
-      <c r="C31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" t="s">
-        <v>58</v>
-      </c>
-      <c r="G31" s="1">
-        <v>1</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0</v>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B32" s="1">
         <v>123123</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>55</v>
       </c>
       <c r="G32" s="1">
         <v>1</v>
@@ -1375,10 +1375,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A12" r:id="rId1" xr:uid="{BAD52362-6BB7-4567-A001-754201747D4C}"/>
-    <hyperlink ref="A13" r:id="rId2" xr:uid="{F4525CFC-81F7-4370-A2A9-53689A104D21}"/>
-    <hyperlink ref="A15" r:id="rId3" xr:uid="{F9E02A9C-FF35-46E4-8A7F-A13B3D3933B5}"/>
-    <hyperlink ref="A14" r:id="rId4" xr:uid="{D27C4AAB-A173-4D03-93C8-D3996903EA0A}"/>
+    <hyperlink ref="A14" r:id="rId1" xr:uid="{BAD52362-6BB7-4567-A001-754201747D4C}"/>
+    <hyperlink ref="A15" r:id="rId2" xr:uid="{F4525CFC-81F7-4370-A2A9-53689A104D21}"/>
+    <hyperlink ref="A17" r:id="rId3" xr:uid="{F9E02A9C-FF35-46E4-8A7F-A13B3D3933B5}"/>
+    <hyperlink ref="A16" r:id="rId4" xr:uid="{D27C4AAB-A173-4D03-93C8-D3996903EA0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>

--- a/src/main/resources/file/test.xlsx
+++ b/src/main/resources/file/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuiy\IdeaProjects\shimo_api\src\main\resources\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD7A690-C896-4FC2-811F-D055B5C21C12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32E9D6A-1373-4040-A357-FE374555827A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="2740" windowWidth="19200" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5385" yWindow="-19455" windowWidth="28515" windowHeight="16650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -658,7 +658,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
